--- a/Data File/DataTest.xlsx
+++ b/Data File/DataTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>

--- a/Data File/DataTest.xlsx
+++ b/Data File/DataTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>

--- a/Data File/DataTest.xlsx
+++ b/Data File/DataTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>

--- a/Data File/DataTest.xlsx
+++ b/Data File/DataTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>

--- a/Data File/DataTest.xlsx
+++ b/Data File/DataTest.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="5730" windowHeight="4290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="5730" windowHeight="4290" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Home Page" sheetId="1" r:id="rId1"/>
-    <sheet name="Button Clicks" sheetId="2" r:id="rId2"/>
-    <sheet name="Status" sheetId="3" r:id="rId3"/>
+    <sheet name="Status" sheetId="3" r:id="rId1"/>
+    <sheet name="Home Page" sheetId="1" r:id="rId2"/>
+    <sheet name="Button Clicks" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>
@@ -132,7 +132,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -516,36 +515,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="13.85546875"/>
-    <col min="2" max="2" customWidth="true" width="31.42578125"/>
-    <col min="3" max="3" customWidth="true" width="51.85546875"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="180">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -556,22 +541,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="18.85546875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="51.85546875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.140625"/>
-    <col min="4" max="4" customWidth="true" style="1" width="20.28515625"/>
-    <col min="5" max="5" customWidth="true" style="1" width="27.85546875"/>
-    <col min="6" max="6" customWidth="true" style="1" width="109.28515625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="10.5703125"/>
-    <col min="8" max="16384" style="1" width="9.140625"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="180">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="109.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -616,7 +641,7 @@
       <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s" s="1">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -639,7 +664,7 @@
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s" s="1">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -662,7 +687,7 @@
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s" s="1">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -683,30 +708,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>